--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2831477.656207057</v>
+        <v>2829225.576495852</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.25786276724599</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>149.3482793282701</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.19777004715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.4723387335435</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>23.28997231782734</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>86.19119570100057</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.59580281112687</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>142.0975176632401</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697916</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>133.9838498346373</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>159.2661870898837</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8784673763403</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.1230996349833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204829</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204829</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>1921.118538374307</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204829</v>
+        <v>1530.979206398496</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686074</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064749</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.638712032432</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.67619509202</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.67619509202</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539438</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269324</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008244</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032432</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777598</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498529</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>527.3220873375171</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1840.232734249099</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1618.466118818625</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1618.466118818625</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1363.781630612738</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1074.364460575777</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>846.3749096777598</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.3749096777598</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.084818551271</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.81911994452</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>621.030867346276</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566684</v>
+        <v>191.9478189608284</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>180.915772846229</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2311.62586152507</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2092.024396548011</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1802.949169892209</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.264681686322</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.847511649361</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.857960751344</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.0653816078141</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.345997432834</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>923.4098145049275</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>773.2931750925917</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>625.3800815101986</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>478.4901340122882</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.15795203868008</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>47.04243616700734</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295127</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>6.257951202385129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.54258064659095</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>769832.6845296716</v>
+        <v>769832.6845296717</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769832.6845296716</v>
+        <v>769832.6845296717</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184649</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184649</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756979.6521184653</v>
+        <v>756979.652118465</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756979.652118465</v>
+        <v>756979.6521184652</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231447</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314469</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179345</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179353</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="L4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11167.03225179353</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26457,7 +26457,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849673.2931740973</v>
+        <v>-849673.2931740971</v>
       </c>
       <c r="C6" t="n">
-        <v>479071.4525534958</v>
+        <v>479071.4525534965</v>
       </c>
       <c r="D6" t="n">
-        <v>479071.4525534959</v>
+        <v>479071.4525534953</v>
       </c>
       <c r="E6" t="n">
-        <v>228193.9208611992</v>
+        <v>228159.1829357635</v>
       </c>
       <c r="F6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431191</v>
       </c>
       <c r="G6" t="n">
-        <v>553606.3826685543</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="H6" t="n">
-        <v>553606.382668554</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="I6" t="n">
-        <v>553606.3826685541</v>
+        <v>553571.644743119</v>
       </c>
       <c r="J6" t="n">
-        <v>336075.1802712764</v>
+        <v>336040.4423458411</v>
       </c>
       <c r="K6" t="n">
-        <v>553606.382668554</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="L6" t="n">
-        <v>553606.3826685541</v>
+        <v>553571.644743119</v>
       </c>
       <c r="M6" t="n">
-        <v>468551.3547330422</v>
+        <v>468516.6168076069</v>
       </c>
       <c r="N6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431189</v>
       </c>
       <c r="O6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431187</v>
       </c>
       <c r="P6" t="n">
-        <v>553606.3826685542</v>
+        <v>553571.6447431186</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,19 +26790,19 @@
         <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>291.425178853437</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>220.3828213501989</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944099</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549366</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>358.6403977544344</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>103.5778296304413</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254641</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>268.8242079902134</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103413</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-4.843613757285243e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
